--- a/Use Case Description.xlsx
+++ b/Use Case Description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASLAB\TPA Dekstop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE999B1-A1E5-45FE-B8F7-DC80D77BBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11813BF6-0B1E-470F-B5A7-0A6EC7FCA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C0610E-0342-4C1E-AC48-AD234F042F3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="125">
   <si>
     <t>No:</t>
   </si>
@@ -80,70 +80,19 @@
     <t>System</t>
   </si>
   <si>
-    <t>Adjust Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human and Resource Department is able to adjust employee salary based
-on employee performance. </t>
-  </si>
-  <si>
     <t>HRD</t>
   </si>
   <si>
-    <t>Employee has a good performance.</t>
-  </si>
-  <si>
     <t>Movie Front Office Division is selling movie ticket to customer.</t>
   </si>
   <si>
-    <t>HRD adjusting employee Salary</t>
-  </si>
-  <si>
     <t>Customers come and order tickets at the cashier.</t>
   </si>
   <si>
-    <t>Movie Front Office Division will ask customers about the details of the movie the customers want to watch. After that, this division will ask customer about the payment method and ask them whether they have a member card or not.</t>
-  </si>
-  <si>
     <t>Movie Front Office Division</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>Movie Front Office Division is available</t>
-  </si>
-  <si>
-    <t>Manage Employee, Verify Salary Adjustment</t>
-  </si>
-  <si>
-    <t>Distribute Vouchers</t>
-  </si>
-  <si>
-    <t>Promotion and Event Department gives vouchers to customer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human and Resource Department can adjust employee salary based on their performance.  HRD together with manager will discuss whether to accept or reject the employees’ salary change </t>
-  </si>
-  <si>
-    <t>Promotion and Event Department is able to generate and distribute 
-vouchers to customers who has become a members</t>
-  </si>
-  <si>
     <t>Promotion and Event Department</t>
-  </si>
-  <si>
-    <t>Promotion and Event Department will distribute vouchers to customers who has become a member and inform them about any ongoing promo or event.</t>
-  </si>
-  <si>
-    <t>Voucher is already generated and ready  to be distributed</t>
-  </si>
-  <si>
-    <t>View Movie Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customers get their movie ticket
-Stuck in the Movie ticket sales revenue increased. </t>
   </si>
   <si>
     <t>Create New Employee</t>
@@ -159,13 +108,7 @@
 information, job description and etc.</t>
   </si>
   <si>
-    <t>Manage Recruitment</t>
-  </si>
-  <si>
     <t>HRD accept employee through recruitment selection</t>
-  </si>
-  <si>
-    <t>Issue Warning Letter</t>
   </si>
   <si>
     <t>HRD issue a warning letter to manager.</t>
@@ -176,24 +119,6 @@
   <si>
     <t>HRD issue a warning letter to an employee that violate a rule based on 
 manager approval.</t>
-  </si>
-  <si>
-    <t>Verify Warning Letter, View Employee Data</t>
-  </si>
-  <si>
-    <t>Employee salary increase.
-Notify employee after salary increased.</t>
-  </si>
-  <si>
-    <t>Notify employee after receiving a warning letter.</t>
-  </si>
-  <si>
-    <t>1. HRD view employee data.
-2. HRD issue a warning letter
-3. Manager verify warning letter</t>
-  </si>
-  <si>
-    <t>Purchase New Facility and Equipment</t>
   </si>
   <si>
     <t>Storage Department</t>
@@ -205,51 +130,10 @@
 Employee data must be associated with account.</t>
   </si>
   <si>
-    <t>1.1 Employee basic information are incomplete.
-2.1 Employee address is invalid.</t>
-  </si>
-  <si>
-    <t>Storage Department buy a new facility and equipment</t>
-  </si>
-  <si>
-    <t>A facility or equipment is being requested by other department</t>
-  </si>
-  <si>
-    <t>Storage Department receive a request from another department</t>
-  </si>
-  <si>
-    <t>Verify Fund Request, Accept Facility and Equipment Request, Record 
-Purchase Data</t>
-  </si>
-  <si>
-    <t>Storage Department will buy a new facility and equipment requested by other department and approved by Accounting and Finance Department and manager.</t>
-  </si>
-  <si>
-    <t>1. Storage department submit 
-requested item to Accounting and Finance Department and manager.
-2. Accounting and Finance Department with manager accept buying request.
-3. Storage department insert purchase data.</t>
-  </si>
-  <si>
-    <t>3.1 Manager reject warning letter.</t>
-  </si>
-  <si>
-    <t>2.1 Accounting and Finance Department with manager reject request</t>
-  </si>
-  <si>
-    <t>Set Working Time</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>Change Working Time</t>
-  </si>
-  <si>
     <t>Employee want to change their working time</t>
-  </si>
-  <si>
-    <t>HRD set a new working time</t>
   </si>
   <si>
     <t>Employee can change their working time at the beginning of each month.</t>
@@ -259,14 +143,6 @@
 month.</t>
   </si>
   <si>
-    <t>1. Employee request a new
- working time.
-2. HRD accept employee new working time request.</t>
-  </si>
-  <si>
-    <t>2.1 HRD reject employee request for new working time.</t>
-  </si>
-  <si>
     <t>Create Membership Card</t>
   </si>
   <si>
@@ -288,117 +164,7 @@
     <t>Member must be saved and recorded</t>
   </si>
   <si>
-    <t>Maintain Facility and Equpiment</t>
-  </si>
-  <si>
-    <t>Accounting and Finance Department, Manager, Employee</t>
-  </si>
-  <si>
-    <t>Storage department will buy the requested item
-Storage department record purchase data.
-Notify the employee that the requested item is being bought.</t>
-  </si>
-  <si>
-    <t>Employee send a report</t>
-  </si>
-  <si>
-    <t>Storage Department fix or repair broken facility and equipment</t>
-  </si>
-  <si>
-    <t>Storage department will check and fix a broken facility and equipment 
-reported by employee</t>
-  </si>
-  <si>
-    <t>Employee, Accounting and Finance Department</t>
-  </si>
-  <si>
-    <t>Send Report, View Facility and Equipment</t>
-  </si>
-  <si>
-    <t>1.1 Storage Department reject employee report.</t>
-  </si>
-  <si>
-    <t>Movie Department override movie schedule.</t>
-  </si>
-  <si>
-    <t>Movie schedule is overlapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie Department will check movie schedule and override </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Movie schedule is overlapping with one or more.</t>
-  </si>
-  <si>
-    <t>System update new movie schedule 
-System notify Movie Front Office Division the updated schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. HRD view employee data
-2. HRD adjust employee salary
-3. HRD with manager verify employee salary </t>
-  </si>
-  <si>
-    <t>1.1 System display employee data
-2.1 System send updated data to manager
-3.1 System update employee salary that has been approved by manager and HRD
-3.2  System notify employee about the updated salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 Manager and HRD reject employee new salary </t>
-  </si>
-  <si>
-    <t>Manager, Accounting and Finance Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Promotion and Event Department 
-view members.
-2. Promotion and Event Department distribute vouchers to members </t>
-  </si>
-  <si>
-    <t>System notify members who got the vouchers</t>
-  </si>
-  <si>
-    <t>1.1 System display all members.
-1.2 System prompt distribute vouchers
-2.1 System send vouchers to members
-2.2 System notify members who got the vouchers</t>
-  </si>
-  <si>
-    <t>Manager, Employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 System display employee data
-2.1 System create a warning letter
-2.2 System send warning letter to manager
-3.1 Sytem record warning letter
-3.2 System notify employee about the warning letter. </t>
-  </si>
-  <si>
-    <t>1.1 System send requested item to 
-Accounting and Finance Department and manager
-1.2 System notify Accounting and Finance Department and manager about upcoming request.
-2.1 System notify Storage Department that the request is approved.
-3.1 System record purchase data.
-3.2 System notify the employee that the request is accepted.</t>
-  </si>
-  <si>
-    <t>System update employee working time.
-System notify employee new working time.</t>
-  </si>
-  <si>
-    <t>1.1 System submit employee request to HRD
-1.2 System notify HRD about employee request to change working time.
-2.1 Sytem update employee working time
-2.2 System notify employee new working time.</t>
-  </si>
-  <si>
-    <t>1.1 System display movie schedule
-2.1 System update movie schedule
-3.1 Sytem notify Movie Front Office Division that the movie schedule is updated.</t>
   </si>
   <si>
     <t xml:space="preserve">1. HRD input basic employee information.
@@ -419,12 +185,6 @@
 4.3 System returns valid employee  details.</t>
   </si>
   <si>
-    <t>View Member</t>
-  </si>
-  <si>
-    <t>Serve Movie Customer, View Member</t>
-  </si>
-  <si>
     <t>1. Movie Front Office Division view member list
 2. Movie Front Office Division fill 
 customer information.
@@ -449,64 +209,348 @@
     <t>Schedule Division</t>
   </si>
   <si>
-    <t>Update Schedule, View Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Storage Department accept employee report.
-2. Storage Department view facility and equipment
-3. Storage Department update maintenance date
-4. Storage Departement send feedback to employee who send the report that the problem is fixed.
+    <t>Update Schedule</t>
+  </si>
+  <si>
+    <t>Movie schedule is already generated in schedule list.</t>
+  </si>
+  <si>
+    <t>Movie schedule is overlapping.</t>
+  </si>
+  <si>
+    <t>Movie Front Office Division will ask customers about the details of the movie the customers want to watch and check out customer order</t>
+  </si>
+  <si>
+    <t>View Employee Data</t>
+  </si>
+  <si>
+    <t>View Facility and Equipment</t>
+  </si>
+  <si>
+    <t>View Working Time</t>
+  </si>
+  <si>
+    <t>Employee want to change their schedule after HRD set a new working time</t>
+  </si>
+  <si>
+    <t>Create Café Order</t>
+  </si>
+  <si>
+    <t>Café Front Office Divisioin is selling food and beverage to customer</t>
+  </si>
+  <si>
+    <t>Customer come and order food or beverage at the cashier.</t>
+  </si>
+  <si>
+    <t>Café Front Office Division will insert customer food order and checkout customer order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café Front Office Division </t>
+  </si>
+  <si>
+    <t>View Menu</t>
+  </si>
+  <si>
+    <t>View Movie Schedule</t>
+  </si>
+  <si>
+    <t>Accounting and Finance Deparment, Kitchen Division</t>
+  </si>
+  <si>
+    <t>Café Front Office Division is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customers get their movie ticket
+Stuck in the Movie ticket sales revenue increased. </t>
+  </si>
+  <si>
+    <t>Customers get their food and beverage order.
+System notify Kitchen Division customer order.</t>
+  </si>
+  <si>
+    <t>1. Café Front Office Division view food and beverage menu.
+2. Café Front Office Division insert customer food and beverage order. 
+3. Cafe Front Office Division scan member card.
+4 Cafe Front Office Division choose payment methods.
+5. Cafe Front Office Division check out order</t>
+  </si>
+  <si>
+    <t>3.1 Customer doesn’t have member card.</t>
+  </si>
+  <si>
+    <t>Create Movie Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 System show food and beverage menu.
+2.1 System add customer food and beverage into order.
+2.2 System prompt member card
+3.1 System prompt payment methods.
+4.1 System calculate customer order.
+4.2 System add member points.
+4.3 System create cafe order
+5.1 System print customer order
+5.2 System notify Kitchen Division customer order.
 </t>
   </si>
   <si>
-    <t>1.1 System notify employee the report is accepted.
-2.1 System display facility and 
-equipment
-3.1 System record updated maintenance date
-4.1 System notify employee that the problem is fixed.</t>
-  </si>
-  <si>
-    <t>System notify employee who send the report that the problem is  
-fixed.</t>
-  </si>
-  <si>
-    <t>Update Schedule</t>
+    <t>1. Movie Front Office Division view ticket schedule.
+2. Movie Front Office Division choose movie schedule.
+3. Movie Front Office Division choose seat.
+4.  Movie Front Office Division scan member card.
+5. Movie Front Office Division choose payment method.
+6. Movie Front Office Division checkout customers orders.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.1 System show movie shedules
+2.1 System prompt seat number.
+3.1 System book seat
+3.2 System prompt member card.
+4.1 System prompt payment methods
+5.1 System calculate customer order.
+5.2 Sy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tem add member points
+5.3 System create ticket order
+6.1  System create and print movie tickets.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 There is no available seat
+4.1 Customer doesn’t have member card
+</t>
+  </si>
+  <si>
+    <t>Movie Front Office Division is available.</t>
+  </si>
+  <si>
+    <t>Generate Vouchers</t>
+  </si>
+  <si>
+    <t>Promotion and Event Department insert voucher information and then 
+generate vouchers.</t>
+  </si>
+  <si>
+    <t>Available voucher is lower than 30% from maximum vouchers</t>
+  </si>
+  <si>
+    <t>Promotion and Event Department will generate vouchers while total vouchers is less than maximum available vouchers.</t>
+  </si>
+  <si>
+    <t>View Vouchers</t>
+  </si>
+  <si>
+    <t>Promotion and Event Department is available</t>
+  </si>
+  <si>
+    <t>System record all the newly generated vouchers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Promotion and Event Department view all vouchers.
+2. Promotion and Event Department insert voucher information.
+3. Promotion and Event Department generate vouchers. </t>
+  </si>
+  <si>
+    <t>1.1 System display all available vouchers.
+2.1 System prompt generate vouchers.
+3.1 System record the new generated vouchers.</t>
+  </si>
+  <si>
+    <t>2.1 Voucher information is invalid
+3.1 Voucher reach maximum limit</t>
+  </si>
+  <si>
+    <t>Create Warning Letter</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Manager, Accounting and Finance Department</t>
+  </si>
+  <si>
+    <t>View Employee</t>
+  </si>
+  <si>
+    <t>Create Movie Order, View Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 System display employee data
+2.1 System prompt warning letter form.
+3.1 System create a warning letter
+3.2 Sytem record warning letter
+3.3 System send warning letter to manager
+</t>
+  </si>
+  <si>
+    <t>System record warning letter
+System notify manager about warning letter</t>
+  </si>
+  <si>
+    <t>HRD knows which employee who break a rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. HRD view employee data.
+2. HRD choose employee
+3. HRD input violation information
+</t>
+  </si>
+  <si>
+    <t>3.1 Employee violation information is incomplete.</t>
+  </si>
+  <si>
+    <t>1.1 Employee basic information is incomplete.
+2.1 Employee address is invalid.</t>
+  </si>
+  <si>
+    <t>Add New Facility and Equipment</t>
+  </si>
+  <si>
+    <t>Storage Department record the new purchased item into database.</t>
+  </si>
+  <si>
+    <t>Employee request fund is approved</t>
+  </si>
+  <si>
+    <t>Storage Department will record the new purchased item into database. If the purchased item is already exist in database then Storage Department will increase the quantity.</t>
+  </si>
+  <si>
+    <t>Employee request item is already bought</t>
+  </si>
+  <si>
+    <t>1. Storage Department view facility and equipment list.
+2. Storage Department Input item information.</t>
+  </si>
+  <si>
+    <t>System record the new purchased item.</t>
+  </si>
+  <si>
+    <t>1.1 System display facility and equipment list.
+2.1 System record the new purchased item.
+2.2 System display item details.</t>
+  </si>
+  <si>
+    <t>2.1 Item information is incomplete.</t>
+  </si>
+  <si>
+    <t>Request New Working Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+System notify hrd about employe request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Employee view their working schedule.
+2. Employee input new requested working time information
+2. Employee request a new
+ working time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 System display employee working schedule
+2.1 System prompt request new working time.
+3.1 System record employee 
+3.2 System notify HRD about employee request.
+</t>
+  </si>
+  <si>
+    <t>2.1 the new requested working time information is incomplete.</t>
+  </si>
+  <si>
+    <t>Update Working Time</t>
+  </si>
+  <si>
+    <t>HRD change employee working time.</t>
+  </si>
+  <si>
+    <t>HRD changes working hours after agreeing to an employee's request</t>
+  </si>
+  <si>
+    <t>HRD will update employee working time one by one and then notify employee at the end.</t>
+  </si>
+  <si>
+    <t>HRD is available.</t>
+  </si>
+  <si>
+    <t>System update employee working time.
+System notify employee.</t>
+  </si>
+  <si>
+    <t>1.1 System display employee working time request.
+2.1 System update employee working time.
+3.1 System display employee new working time.
+3.2 System notify employee.</t>
+  </si>
+  <si>
+    <t>1. HRD view Employee working time request.
+2. HRD input employee new working time based on employee request.
+3. HRD view employee new working time.</t>
+  </si>
+  <si>
+    <t>View Working Time Request, View Working Time</t>
+  </si>
+  <si>
+    <t>Schedule Division will check movie schedule and update overlapping 
+schedule.</t>
+  </si>
+  <si>
+    <t>System update new movie schedule 
+System notify Movie Department the updated schedule</t>
+  </si>
+  <si>
+    <t>Movie Deparment</t>
+  </si>
+  <si>
+    <t>Schedule Division override movie schedule.</t>
   </si>
   <si>
     <t>1. Schedule Division view movie 
 schedule
-2. Schedule Division change movie schedule 
-3. Schedule Division send notification to Movie Front Office Division</t>
-  </si>
-  <si>
-    <t>Serve Movie Customer</t>
-  </si>
-  <si>
-    <t>1. Movie Front Office Division view ticket schedule.
-2.  Movie Front Office Division scan member card.
-3. Movie Front Office Division choose payment method.
-4. Movie Front Office Division checkout customers orders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 System show movie shedules
-1.1 System prompt  payment method
-2.1 System add member points
-3.1 System calculate payment
-4.1 System record sales data
-4.2  System create and print movie tickets.
-</t>
-  </si>
-  <si>
-    <t>2.1 Customer doesn't have member card.</t>
+2. Schedule Division update movie schedule 
+3. Schedule Division send notification to Movie Department</t>
+  </si>
+  <si>
+    <t>1.1 System display movie schedule
+2.1 System update movie schedule
+3.1 Sytem notify Movie Department that the movie schedule is updated.</t>
+  </si>
+  <si>
+    <t>2.1 There is no overlapping schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -580,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,13 +637,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -616,19 +656,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -637,22 +680,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B26A92-DD5C-464D-970B-86F311EBC16D}">
   <dimension ref="D3:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="B137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,98 +1021,98 @@
     <col min="6" max="6" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="4:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="E4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
+      <c r="E5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="4:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="11" t="s">
+      <c r="E6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="4:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="15"/>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15"/>
+      <c r="E11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="4:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1082,116 +1122,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="17"/>
-      <c r="E14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>93</v>
+    <row r="14" spans="4:6" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="E15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="17">
         <v>2</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="4:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="11" t="s">
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="17"/>
+      <c r="E22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="20"/>
+      <c r="E23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="E24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="E25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1201,121 +1241,120 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="17"/>
-      <c r="E29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="11" t="s">
+    <row r="29" spans="4:6" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="14"/>
+      <c r="E29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="17"/>
+      <c r="E30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <v>3</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="4:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="4:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="11" t="s">
+      <c r="E35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="4:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="11" t="s">
+      <c r="E36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="22"/>
+      <c r="E37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="15"/>
+      <c r="E38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="15"/>
+      <c r="E39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="15"/>
+      <c r="E40" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="15"/>
+      <c r="E41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="4:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="15"/>
+      <c r="E42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1326,113 +1365,115 @@
       </c>
     </row>
     <row r="44" spans="4:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="17"/>
-      <c r="E44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="14"/>
+      <c r="E44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="12"/>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="15">
         <v>4</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="15"/>
+      <c r="E49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="15"/>
+      <c r="E50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="15"/>
+      <c r="E51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="15"/>
+      <c r="E52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="15"/>
+      <c r="E53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="15"/>
+      <c r="E54" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="22"/>
+      <c r="E55" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="15"/>
+      <c r="E56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="4:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="15"/>
+      <c r="E57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -1442,116 +1483,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:6" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="17"/>
-      <c r="E59" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>106</v>
+    <row r="59" spans="4:6" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="14"/>
+      <c r="E59" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="17"/>
+      <c r="E60" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="14"/>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="15">
         <v>5</v>
       </c>
-      <c r="F63" s="18"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="15"/>
+      <c r="E64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="15"/>
+      <c r="E65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="15"/>
+      <c r="E66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="4:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="15"/>
+      <c r="E67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="15"/>
+      <c r="E68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="15"/>
+      <c r="E69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="15"/>
+      <c r="E70" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="4:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="22"/>
+      <c r="E72" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -1561,116 +1602,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="4:6" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="17"/>
-      <c r="E74" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>100</v>
+    <row r="74" spans="4:6" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="14"/>
+      <c r="E74" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="15"/>
+      <c r="E75" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="12"/>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="15">
         <v>6</v>
       </c>
-      <c r="F78" s="18"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="15"/>
+      <c r="E79" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80" s="15"/>
+      <c r="E80" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F81" s="22"/>
+      <c r="E81" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="21"/>
     </row>
     <row r="82" spans="4:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="15"/>
-    </row>
-    <row r="84" spans="4:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="11" t="s">
+      <c r="E83" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="4:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="15"/>
+      <c r="E84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="15"/>
+      <c r="E85" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="15"/>
-    </row>
-    <row r="87" spans="4:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="4:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="15"/>
+      <c r="E87" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -1680,116 +1721,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="4:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="D89" s="17"/>
-      <c r="E89" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>101</v>
+    <row r="89" spans="4:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="14"/>
+      <c r="E89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="E90" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="12"/>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="15">
         <v>7</v>
       </c>
-      <c r="F93" s="18"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" s="15"/>
+      <c r="E94" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F95" s="15"/>
+      <c r="E95" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="15"/>
+      <c r="E96" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="15"/>
+      <c r="E97" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F98" s="15"/>
+      <c r="E98" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="15"/>
+      <c r="E99" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="15"/>
+      <c r="E100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="4:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="4:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="15"/>
+      <c r="E102" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -1799,116 +1840,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="4:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="17"/>
-      <c r="E104" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>103</v>
+    <row r="104" spans="4:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="14"/>
+      <c r="E104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F105" s="15"/>
+      <c r="E105" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="12"/>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="15">
         <v>8</v>
       </c>
-      <c r="F108" s="18"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F109" s="15"/>
+      <c r="E109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="15"/>
+      <c r="E110" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F111" s="15"/>
+      <c r="E111" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F112" s="15"/>
+      <c r="E112" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E113" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="20"/>
+      <c r="E113" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="19"/>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" s="15"/>
+      <c r="E114" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="15"/>
+      <c r="E115" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F116" s="15"/>
+      <c r="E116" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F117" s="15"/>
+      <c r="E117" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -1919,115 +1960,115 @@
       </c>
     </row>
     <row r="119" spans="4:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="17"/>
-      <c r="E119" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>110</v>
+      <c r="D119" s="14"/>
+      <c r="E119" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="4:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F120" s="15"/>
+      <c r="E120" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" s="12"/>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="15">
         <v>9</v>
       </c>
-      <c r="F123" s="18"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F124" s="15"/>
+      <c r="E124" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F125" s="15"/>
+      <c r="E125" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F126" s="15"/>
-    </row>
-    <row r="127" spans="4:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="11" t="s">
+      <c r="E126" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" spans="4:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F127" s="15"/>
+      <c r="E127" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" s="12"/>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="15"/>
+      <c r="E128" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F129" s="15"/>
+      <c r="E129" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F130" s="15"/>
+      <c r="E130" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F131" s="15"/>
-    </row>
-    <row r="132" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="11" t="s">
+      <c r="E131" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" spans="4:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F132" s="15"/>
+      <c r="E132" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -2037,12 +2078,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="4:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="17"/>
-      <c r="E134" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F134" s="6" t="s">
+    <row r="134" spans="4:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="14"/>
+      <c r="E134" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2050,106 +2091,104 @@
       <c r="D135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F135" s="15"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="15">
         <v>10</v>
       </c>
-      <c r="F138" s="18"/>
+      <c r="F138" s="15"/>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F139" s="15"/>
+      <c r="E139" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F140" s="15"/>
+      <c r="E140" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F140" s="12"/>
     </row>
     <row r="141" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F141" s="15"/>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D142" s="1" t="s">
+      <c r="E141" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" spans="4:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F142" s="15"/>
+      <c r="E142" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F142" s="12"/>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F143" s="15"/>
+      <c r="E143" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="12"/>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D144" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F144" s="15"/>
+      <c r="E144" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="15"/>
+      <c r="E145" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="12"/>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F146" s="15"/>
+      <c r="E146" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="12"/>
       <c r="G146" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D147" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F147" s="15"/>
+      <c r="E147" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -2159,108 +2198,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="4:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="D149" s="16"/>
+    <row r="149" spans="4:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D149" s="14"/>
       <c r="E149" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D150" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
+      <c r="E150" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
     <mergeCell ref="E108:F108"/>
     <mergeCell ref="D118:D119"/>
     <mergeCell ref="E120:F120"/>
@@ -2276,28 +2254,92 @@
     <mergeCell ref="E112:F112"/>
     <mergeCell ref="E113:F113"/>
     <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>